--- a/tables/paired_anova.xlsx
+++ b/tables/paired_anova.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,42 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">paired_f_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paired_f_nexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paired_f_pval_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paired_f_pval_nexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paired_t_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paired_t_nexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paired_t_pval_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paired_t_pval_nexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_pre_post_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_pre_post_nexp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_nexp</t>
+  </si>
+  <si>
     <t xml:space="preserve">paired_f</t>
   </si>
   <si>
@@ -30,18 +66,6 @@
   </si>
   <si>
     <t xml:space="preserve">paired_t_pval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_pre_post_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r_pre_post_nexp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_exp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_nexp</t>
   </si>
 </sst>
 </file>
@@ -404,88 +428,118 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D2"/>
+        <v>0.87</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.31</v>
+      </c>
       <c r="E2"/>
       <c r="F2"/>
-      <c r="G2" t="n">
-        <v>0.162</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.088</v>
-      </c>
-      <c r="I2" t="n">
-        <v>94</v>
-      </c>
-      <c r="J2" t="n">
-        <v>116</v>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.689</v>
+      </c>
+      <c r="M2" t="n">
+        <v>78</v>
+      </c>
+      <c r="N2" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3"/>
-      <c r="D3" t="n">
-        <v>0.0275</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I3" t="n">
-        <v>96</v>
-      </c>
-      <c r="J3" t="n">
-        <v>113</v>
+      <c r="D3"/>
+      <c r="E3" t="n">
+        <v>0.0885</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0791</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="M3" t="n">
+        <v>36</v>
+      </c>
+      <c r="N3" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
-      <c r="E4" t="n">
-        <v>1.12</v>
-      </c>
+      <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.79</v>
+        <v>5.18</v>
       </c>
       <c r="H4" t="n">
-        <v>0.824</v>
-      </c>
-      <c r="I4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="M4" t="n">
+        <v>77</v>
+      </c>
+      <c r="N4" t="n">
         <v>79</v>
-      </c>
-      <c r="J4" t="n">
-        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -493,20 +547,26 @@
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
-      <c r="F5" t="n">
-        <v>0.00628</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.439</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.494</v>
-      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
       <c r="I5" t="n">
-        <v>79</v>
+        <v>0.00828</v>
       </c>
       <c r="J5" t="n">
-        <v>92</v>
+        <v>0.00707</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="M5" t="n">
+        <v>61</v>
+      </c>
+      <c r="N5" t="n">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/tables/paired_anova.xlsx
+++ b/tables/paired_anova.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">all_info_expected</t>
   </si>
@@ -20,6 +20,12 @@
     <t xml:space="preserve">study_id</t>
   </si>
   <si>
+    <t xml:space="preserve">natural_es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">converted_es</t>
+  </si>
+  <si>
     <t xml:space="preserve">paired_f_exp</t>
   </si>
   <si>
@@ -57,6 +63,12 @@
   </si>
   <si>
     <t xml:space="preserve">paired_f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR+R+Z</t>
   </si>
   <si>
     <t xml:space="preserve">paired_f_pval</t>
@@ -440,133 +452,163 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2"/>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.64</v>
+      </c>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
-      <c r="K2" t="n">
-        <v>0.665</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.689</v>
-      </c>
+      <c r="K2"/>
+      <c r="L2"/>
       <c r="M2" t="n">
-        <v>78</v>
+        <v>0.792</v>
       </c>
       <c r="N2" t="n">
-        <v>91</v>
+        <v>0.877</v>
+      </c>
+      <c r="O2" t="n">
+        <v>27</v>
+      </c>
+      <c r="P2" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3" t="n">
-        <v>0.0885</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0791</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" t="n">
+        <v>0.0665</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0349</v>
+      </c>
       <c r="I3"/>
       <c r="J3"/>
-      <c r="K3" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.489</v>
-      </c>
+      <c r="K3"/>
+      <c r="L3"/>
       <c r="M3" t="n">
-        <v>36</v>
+        <v>0.042</v>
       </c>
       <c r="N3" t="n">
-        <v>45</v>
+        <v>0.054</v>
+      </c>
+      <c r="O3" t="n">
+        <v>10</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
       <c r="E4"/>
       <c r="F4"/>
-      <c r="G4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.665</v>
-      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4"/>
       <c r="M4" t="n">
-        <v>77</v>
+        <v>0.678</v>
       </c>
       <c r="N4" t="n">
-        <v>79</v>
+        <v>0.755</v>
+      </c>
+      <c r="O4" t="n">
+        <v>71</v>
+      </c>
+      <c r="P4" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5" t="n">
-        <v>0.00828</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.00707</v>
-      </c>
+      <c r="I5"/>
+      <c r="J5"/>
       <c r="K5" t="n">
-        <v>0.492</v>
+        <v>0.00679</v>
       </c>
       <c r="L5" t="n">
-        <v>0.481</v>
+        <v>0.00188</v>
       </c>
       <c r="M5" t="n">
-        <v>61</v>
+        <v>0.407</v>
       </c>
       <c r="N5" t="n">
-        <v>76</v>
+        <v>0.417</v>
+      </c>
+      <c r="O5" t="n">
+        <v>37</v>
+      </c>
+      <c r="P5" t="n">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/tables/paired_anova.xlsx
+++ b/tables/paired_anova.xlsx
@@ -473,10 +473,10 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>3.5</v>
+        <v>3.26</v>
       </c>
       <c r="F2" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -485,16 +485,16 @@
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2" t="n">
-        <v>0.792</v>
+        <v>0.635</v>
       </c>
       <c r="N2" t="n">
-        <v>0.877</v>
+        <v>0.65</v>
       </c>
       <c r="O2" t="n">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="P2" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3">
@@ -513,26 +513,26 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.0665</v>
+        <v>0.023</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0349</v>
+        <v>0.0847</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3" t="n">
-        <v>0.042</v>
+        <v>0.661</v>
       </c>
       <c r="N3" t="n">
-        <v>0.054</v>
+        <v>0.584</v>
       </c>
       <c r="O3" t="n">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -553,24 +553,24 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="n">
-        <v>2.66</v>
+        <v>1.37</v>
       </c>
       <c r="J4" t="n">
-        <v>5.43</v>
+        <v>0.12</v>
       </c>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4" t="n">
-        <v>0.678</v>
+        <v>0.562</v>
       </c>
       <c r="N4" t="n">
-        <v>0.755</v>
+        <v>0.489</v>
       </c>
       <c r="O4" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="P4" t="n">
-        <v>69</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
@@ -593,22 +593,22 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5" t="n">
-        <v>0.00679</v>
+        <v>0.00457</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00188</v>
+        <v>0.00857</v>
       </c>
       <c r="M5" t="n">
-        <v>0.407</v>
+        <v>0.983</v>
       </c>
       <c r="N5" t="n">
-        <v>0.417</v>
+        <v>1.071</v>
       </c>
       <c r="O5" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="P5" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/tables/paired_anova.xlsx
+++ b/tables/paired_anova.xlsx
@@ -473,10 +473,10 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>3.26</v>
+        <v>4.2</v>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>5.91</v>
       </c>
       <c r="G2"/>
       <c r="H2"/>
@@ -485,16 +485,16 @@
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2" t="n">
-        <v>0.635</v>
+        <v>0.719</v>
       </c>
       <c r="N2" t="n">
-        <v>0.65</v>
+        <v>0.696</v>
       </c>
       <c r="O2" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="P2" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -513,26 +513,26 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.023</v>
+        <v>0.0837</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0847</v>
+        <v>0.0333</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3" t="n">
-        <v>0.661</v>
+        <v>0.751</v>
       </c>
       <c r="N3" t="n">
-        <v>0.584</v>
+        <v>0.695</v>
       </c>
       <c r="O3" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P3" t="n">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4">
@@ -553,24 +553,24 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="n">
-        <v>1.37</v>
+        <v>3.59</v>
       </c>
       <c r="J4" t="n">
-        <v>0.12</v>
+        <v>0.6</v>
       </c>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4" t="n">
-        <v>0.562</v>
+        <v>0.809</v>
       </c>
       <c r="N4" t="n">
-        <v>0.489</v>
+        <v>0.731</v>
       </c>
       <c r="O4" t="n">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="P4" t="n">
-        <v>106</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -593,22 +593,22 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5" t="n">
-        <v>0.00457</v>
+        <v>0.0049</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00857</v>
+        <v>0.00713</v>
       </c>
       <c r="M5" t="n">
-        <v>0.983</v>
+        <v>0.113</v>
       </c>
       <c r="N5" t="n">
-        <v>1.071</v>
+        <v>0.024</v>
       </c>
       <c r="O5" t="n">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="P5" t="n">
-        <v>47</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
